--- a/Template CIPA.xlsx
+++ b/Template CIPA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorago\Documents\Projetos\CIPAOnLine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorago\Documents\Projetos\CIPAOnLine - JWT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19AA3C12-91B7-405E-9AAC-06FBFFFCA0B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gestores" sheetId="9" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Matrícula</t>
   </si>
@@ -55,13 +56,34 @@
   </si>
   <si>
     <t>Usuário de rede</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>igorago@algartech.com</t>
+  </si>
+  <si>
+    <t>igorago</t>
+  </si>
+  <si>
+    <t>Analista de TI</t>
+  </si>
+  <si>
+    <t>igorgomes96@hotmail.com</t>
+  </si>
+  <si>
+    <t>Igor Gomes</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +102,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,16 +166,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -453,10 +487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +507,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CE55BFF7-9F44-4E48-9410-5020D9E62A99}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -481,10 +526,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +574,41 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>41983</v>
+      </c>
+      <c r="G2" s="5">
+        <v>35114</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{6E05CC30-DFDC-4BC7-B92B-A2F9CB95BE2D}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>